--- a/zajecia2/Zeszyt1.xlsx
+++ b/zajecia2/Zeszyt1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-15.CAMPUS.011\Desktop\Arkusz-kalkulacyjny\zajecia2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-15.CAMPUS.013\Desktop\Arkusz-kalkulacyjny\zajecia2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D426AF2-EB87-4728-BF0A-6E4FF10FD8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B76E6F-BF88-4572-9AC6-1039E845497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{62A0D93C-5002-49C4-A772-11F6673F183F}"/>
   </bookViews>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Kategoria</t>
   </si>
@@ -187,17 +185,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color auto="1"/>
@@ -210,81 +198,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7171"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -802,11 +720,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B17">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$B1="Wydatki"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$B1="Wpływy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$B1="Wydatki"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -819,10 +737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAE6FB8-165E-4F5A-B56A-E9977D2B5FF9}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +812,121 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <f>_xlfn.XLOOKUP(D4,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v>Wydatki</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xlfn.XLOOKUP(D5,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v>Wpływy</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f>_xlfn.XLOOKUP(D6,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f>_xlfn.XLOOKUP(D7,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f>_xlfn.XLOOKUP(D8,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f>_xlfn.XLOOKUP(D9,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f>_xlfn.XLOOKUP(D10,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f>_xlfn.XLOOKUP(D11,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f>_xlfn.XLOOKUP(D12,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f>_xlfn.XLOOKUP(D13,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f>_xlfn.XLOOKUP(D14,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <f>_xlfn.XLOOKUP(D15,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f>_xlfn.XLOOKUP(D16,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <f>_xlfn.XLOOKUP(D17,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <f>_xlfn.XLOOKUP(D18,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f>_xlfn.XLOOKUP(D19,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f>_xlfn.XLOOKUP(D20,Tabela1[Kategoria:],Tabela1[Typ:],"",0,1)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
